--- a/models_tech.xlsx
+++ b/models_tech.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A$2:$E$248</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A$1:$K$248</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -1021,21 +1021,64 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F248"/>
+  <dimension ref="A1:K248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.7777777777778" customWidth="1" min="6" max="6"/>
+    <col width="16.5555555555556" customWidth="1" min="3" max="3"/>
+    <col width="21.7777777777778" customWidth="1" min="4" max="4"/>
+    <col width="11.4444444444444" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" t="n">
+        <v>5</v>
+      </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>newautokazan</t>
+          <t>vzletka</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>autosurgut186</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>idol_avto</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>vita-avto</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>kosmos_cars</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>avanta_avto_credit</t>
         </is>
       </c>
     </row>
@@ -1066,6 +1109,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1096,6 +1164,11 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1119,7 +1192,22 @@
       <c r="E4" t="n">
         <v>511</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -1154,6 +1242,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1184,6 +1292,16 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1214,6 +1332,16 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1244,6 +1372,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1274,6 +1427,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1304,6 +1482,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1334,6 +1537,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1359,6 +1582,11 @@
       <c r="E12" t="n">
         <v>742</v>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1384,6 +1612,31 @@
       <c r="E13" t="n">
         <v>106</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1409,6 +1662,26 @@
       <c r="E14" t="n">
         <v>107</v>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1439,6 +1712,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1464,7 +1752,12 @@
       <c r="E16" t="n">
         <v>110</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -1499,6 +1792,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1529,6 +1847,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1559,6 +1897,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1589,6 +1952,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1612,7 +1990,17 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1639,6 +2027,11 @@
       <c r="E22" t="n">
         <v>852</v>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1669,6 +2062,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1694,6 +2112,26 @@
       <c r="E24" t="n">
         <v>135</v>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1724,6 +2162,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1754,6 +2217,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1773,11 +2261,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CS75 Plus 2023</t>
+          <t>CS75 Plus New</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1809,6 +2312,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1839,6 +2362,16 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1869,6 +2402,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1899,6 +2457,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1924,6 +2507,21 @@
       <c r="E32" t="n">
         <v>140</v>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1949,6 +2547,11 @@
       <c r="E33" t="n">
         <v>713</v>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1974,7 +2577,7 @@
       <c r="E34" t="n">
         <v>154</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2009,6 +2612,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2034,6 +2652,11 @@
       <c r="E36" t="n">
         <v>974</v>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2064,6 +2687,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2089,7 +2737,17 @@
       <c r="E38" t="n">
         <v>150</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2124,6 +2782,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2149,7 +2822,22 @@
       <c r="E40" t="n">
         <v>158</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2184,6 +2872,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2214,6 +2927,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2244,6 +2982,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2274,6 +3037,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2304,6 +3092,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2334,6 +3137,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2359,6 +3177,21 @@
       <c r="E47" t="n">
         <v>679</v>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2384,6 +3217,26 @@
       <c r="E48" t="n">
         <v>165</v>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2409,6 +3262,21 @@
       <c r="E49" t="n">
         <v>678</v>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2434,6 +3302,16 @@
       <c r="E50" t="n">
         <v>677</v>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2464,6 +3342,16 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2494,6 +3382,16 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2524,6 +3422,16 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2549,6 +3457,16 @@
       <c r="E54" t="n">
         <v>191</v>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2574,6 +3492,26 @@
       <c r="E55" t="n">
         <v>190</v>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2599,6 +3537,16 @@
       <c r="E56" t="n">
         <v>750</v>
       </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2624,6 +3572,16 @@
       <c r="E57" t="n">
         <v>188</v>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2641,11 +3599,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>580 New</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>192</v>
+        <v>186</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2670,6 +3633,31 @@
       <c r="E59" t="n">
         <v>192</v>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2695,6 +3683,26 @@
       <c r="E60" t="n">
         <v>187</v>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2720,6 +3728,16 @@
       <c r="E61" t="n">
         <v>189</v>
       </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2745,6 +3763,21 @@
       <c r="E62" t="n">
         <v>207</v>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2775,6 +3808,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2805,6 +3863,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2830,6 +3908,16 @@
       <c r="E65" t="n">
         <v>202</v>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2860,6 +3948,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2890,6 +3998,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2915,6 +4048,16 @@
       <c r="E68" t="n">
         <v>206</v>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2945,6 +4088,11 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2975,6 +4123,11 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -3005,6 +4158,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3035,6 +4203,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -3060,6 +4248,11 @@
       <c r="E73" t="n">
         <v>829</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -3085,7 +4278,17 @@
       <c r="E74" t="n">
         <v>216</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3115,6 +4318,11 @@
       <c r="E75" t="n">
         <v>830</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -3145,6 +4353,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -3170,6 +4393,26 @@
       <c r="E77" t="n">
         <v>249</v>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -3200,6 +4443,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3230,6 +4493,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -3255,7 +4543,22 @@
       <c r="E80" t="n">
         <v>245</v>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3285,7 +4588,12 @@
       <c r="E81" t="n">
         <v>264</v>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3320,6 +4628,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -3350,6 +4678,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -3375,6 +4728,26 @@
       <c r="E84" t="n">
         <v>260</v>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -3405,6 +4778,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -3435,6 +4828,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -3460,6 +4878,26 @@
       <c r="E87" t="n">
         <v>772</v>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -3485,6 +4923,16 @@
       <c r="E88" t="n">
         <v>743</v>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -3515,6 +4963,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -3540,6 +5008,31 @@
       <c r="E90" t="n">
         <v>267</v>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -3565,6 +5058,31 @@
       <c r="E91" t="n">
         <v>270</v>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -3595,6 +5113,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -3620,6 +5163,11 @@
       <c r="E93" t="n">
         <v>273</v>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -3645,6 +5193,11 @@
       <c r="E94" t="n">
         <v>277</v>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3675,6 +5228,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3705,6 +5273,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3735,6 +5328,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3765,6 +5378,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -3790,6 +5428,31 @@
       <c r="E99" t="n">
         <v>304</v>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -3815,6 +5478,31 @@
       <c r="E100" t="n">
         <v>305</v>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -3845,6 +5533,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -3870,7 +5578,27 @@
       <c r="E102" t="n">
         <v>288</v>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3905,6 +5633,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -3935,6 +5688,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3960,7 +5738,17 @@
       <c r="E105" t="n">
         <v>306</v>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3995,6 +5783,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -4020,6 +5833,21 @@
       <c r="E107" t="n">
         <v>684</v>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -4050,6 +5878,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -4075,6 +5923,26 @@
       <c r="E109" t="n">
         <v>313</v>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -4100,6 +5968,26 @@
       <c r="E110" t="n">
         <v>319</v>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -4125,6 +6013,26 @@
       <c r="E111" t="n">
         <v>333</v>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -4155,6 +6063,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -4185,6 +6113,16 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -4210,6 +6148,11 @@
       <c r="E114" t="n">
         <v>793</v>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -4235,6 +6178,31 @@
       <c r="E115" t="n">
         <v>331</v>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -4260,6 +6228,31 @@
       <c r="E116" t="n">
         <v>323</v>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -4285,7 +6278,17 @@
       <c r="E117" t="n">
         <v>341</v>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4320,6 +6323,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -4345,6 +6363,31 @@
       <c r="E119" t="n">
         <v>338</v>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -4375,6 +6418,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -4400,6 +6468,31 @@
       <c r="E121" t="n">
         <v>340</v>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -4425,6 +6518,16 @@
       <c r="E122" t="n">
         <v>344</v>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -4450,6 +6553,21 @@
       <c r="E123" t="n">
         <v>681</v>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -4475,6 +6593,16 @@
       <c r="E124" t="n">
         <v>345</v>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -4500,6 +6628,16 @@
       <c r="E125" t="n">
         <v>682</v>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -4530,6 +6668,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -4555,7 +6718,27 @@
       <c r="E127" t="n">
         <v>348</v>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4585,6 +6768,26 @@
       <c r="E128" t="n">
         <v>758</v>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -4615,6 +6818,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -4640,6 +6868,21 @@
       <c r="E130" t="n">
         <v>352</v>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -4670,6 +6913,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -4700,6 +6968,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -4725,7 +7018,27 @@
       <c r="E133" t="n">
         <v>351</v>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4760,6 +7073,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -4790,6 +7118,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -4820,6 +7163,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -4850,6 +7208,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -4880,6 +7263,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -4910,6 +7318,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -4940,6 +7373,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -4965,7 +7423,7 @@
       <c r="E141" t="n">
         <v>375</v>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4995,6 +7453,26 @@
       <c r="E142" t="n">
         <v>373</v>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -5020,6 +7498,26 @@
       <c r="E143" t="n">
         <v>376</v>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -5050,6 +7548,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -5080,6 +7598,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -5110,6 +7648,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -5135,6 +7693,21 @@
       <c r="E147" t="n">
         <v>368</v>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -5160,7 +7733,22 @@
       <c r="E148" t="n">
         <v>395</v>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -5195,6 +7783,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -5225,6 +7833,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -5255,6 +7878,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -5280,6 +7928,26 @@
       <c r="E152" t="n">
         <v>391</v>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -5305,6 +7973,26 @@
       <c r="E153" t="n">
         <v>397</v>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -5330,6 +8018,31 @@
       <c r="E154" t="n">
         <v>362</v>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -5355,6 +8068,26 @@
       <c r="E155" t="n">
         <v>399</v>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -5380,6 +8113,21 @@
       <c r="E156" t="n">
         <v>388</v>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -5410,6 +8158,16 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -5440,6 +8198,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -5470,6 +8243,11 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -5495,7 +8273,7 @@
       <c r="E160" t="n">
         <v>433</v>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -5530,6 +8308,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -5560,6 +8358,11 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -5590,6 +8393,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -5620,6 +8443,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -5650,6 +8488,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -5680,6 +8538,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -5699,13 +8577,28 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F167" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -5740,6 +8633,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -5770,6 +8683,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -5795,7 +8728,7 @@
       <c r="E170" t="n">
         <v>436</v>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -5825,6 +8758,11 @@
       <c r="E171" t="n">
         <v>723</v>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -5850,6 +8788,11 @@
       <c r="E172" t="n">
         <v>732</v>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -5875,6 +8818,21 @@
       <c r="E173" t="n">
         <v>432</v>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -5900,6 +8858,11 @@
       <c r="E174" t="n">
         <v>411</v>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -5925,6 +8888,11 @@
       <c r="E175" t="n">
         <v>409</v>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -5944,13 +8912,23 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>443</v>
-      </c>
-      <c r="F176" t="inlineStr">
+        <v>444</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -5980,6 +8958,21 @@
       <c r="E177" t="n">
         <v>418</v>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -6005,6 +8998,21 @@
       <c r="E178" t="n">
         <v>420</v>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -6024,13 +9032,28 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F179" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -6054,13 +9077,28 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -6090,6 +9128,21 @@
       <c r="E181" t="n">
         <v>419</v>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -6115,6 +9168,11 @@
       <c r="E182" t="n">
         <v>442</v>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -6140,6 +9198,11 @@
       <c r="E183" t="n">
         <v>703</v>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -6165,6 +9228,21 @@
       <c r="E184" t="n">
         <v>795</v>
       </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -6190,6 +9268,16 @@
       <c r="E185" t="n">
         <v>460</v>
       </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -6215,6 +9303,11 @@
       <c r="E186" t="n">
         <v>461</v>
       </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -6240,6 +9333,16 @@
       <c r="E187" t="n">
         <v>463</v>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -6265,6 +9368,16 @@
       <c r="E188" t="n">
         <v>457</v>
       </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -6290,6 +9403,16 @@
       <c r="E189" t="n">
         <v>455</v>
       </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -6313,7 +9436,17 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>458</v>
+        <v>459</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
       </c>
     </row>
     <row r="191">
@@ -6345,6 +9478,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -6375,6 +9533,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -6405,6 +9588,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -6428,6 +9636,26 @@
       <c r="E194" t="n">
         <v>492</v>
       </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -6451,6 +9679,26 @@
       <c r="E195" t="n">
         <v>493</v>
       </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -6476,6 +9724,21 @@
       <c r="E196" t="n">
         <v>495</v>
       </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -6506,6 +9769,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -6536,6 +9819,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -6566,6 +9874,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -6596,6 +9924,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -6626,6 +9969,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -6656,6 +10024,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -6681,6 +10074,26 @@
       <c r="E203" t="n">
         <v>527</v>
       </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -6706,6 +10119,21 @@
       <c r="E204" t="n">
         <v>820</v>
       </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -6731,6 +10159,21 @@
       <c r="E205" t="n">
         <v>546</v>
       </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -6756,6 +10199,21 @@
       <c r="E206" t="n">
         <v>545</v>
       </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -6781,6 +10239,21 @@
       <c r="E207" t="n">
         <v>547</v>
       </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -6811,6 +10284,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -6841,6 +10334,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -6871,6 +10384,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -6901,6 +10434,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -6926,6 +10479,21 @@
       <c r="E212" t="n">
         <v>553</v>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -6956,6 +10524,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -6986,6 +10574,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -7016,6 +10624,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -7041,6 +10669,26 @@
       <c r="E216" t="n">
         <v>578</v>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -7071,6 +10719,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -7096,6 +10764,26 @@
       <c r="E218" t="n">
         <v>574</v>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -7121,6 +10809,11 @@
       <c r="E219" t="n">
         <v>590</v>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -7151,6 +10844,21 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -7181,6 +10889,11 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -7206,6 +10919,11 @@
       <c r="E222" t="n">
         <v>591</v>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -7231,6 +10949,11 @@
       <c r="E223" t="n">
         <v>592</v>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -7256,6 +10979,11 @@
       <c r="E224" t="n">
         <v>593</v>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -7286,6 +11014,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -7316,6 +11069,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -7346,6 +11124,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -7376,6 +11179,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -7401,6 +11229,16 @@
       <c r="E229" t="n">
         <v>822</v>
       </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -7451,6 +11289,26 @@
       <c r="E231" t="n">
         <v>611</v>
       </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -7476,6 +11334,26 @@
       <c r="E232" t="n">
         <v>612</v>
       </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -7501,6 +11379,26 @@
       <c r="E233" t="n">
         <v>613</v>
       </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -7529,6 +11427,31 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -7557,6 +11480,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -7580,6 +11523,11 @@
       <c r="E236" t="n">
         <v>850</v>
       </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -7605,6 +11553,16 @@
       <c r="E237" t="n">
         <v>630</v>
       </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -7635,6 +11593,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -7665,6 +11643,26 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -7690,6 +11688,26 @@
       <c r="E240" t="n">
         <v>657</v>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -7720,6 +11738,16 @@
           <t>Да</t>
         </is>
       </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -7745,6 +11773,16 @@
       <c r="E242" t="n">
         <v>659</v>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -7770,6 +11808,11 @@
       <c r="E243" t="n">
         <v>706</v>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -7795,6 +11838,21 @@
       <c r="E244" t="n">
         <v>655</v>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -7820,6 +11878,16 @@
       <c r="E245" t="n">
         <v>675</v>
       </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -7845,6 +11913,16 @@
       <c r="E246" t="n">
         <v>787</v>
       </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -7870,6 +11948,16 @@
       <c r="E247" t="n">
         <v>674</v>
       </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -7895,9 +11983,19 @@
       <c r="E248" t="n">
         <v>672</v>
       </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E248"/>
+  <autoFilter ref="A1:K248"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>